--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D0EC59-F4B2-4E06-A0D4-1DAE587A58DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCB9CF4-EB4F-4CBD-83F4-B04D864186D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -178,6 +178,36 @@
   </si>
   <si>
     <t>T-12</t>
+  </si>
+  <si>
+    <t>3rd February, 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumPy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">range() function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumPy Introduction </t>
+  </si>
+  <si>
+    <t>np.array()</t>
+  </si>
+  <si>
+    <t>np.arange()</t>
+  </si>
+  <si>
+    <t>np.zeroes()</t>
+  </si>
+  <si>
+    <t>np.ones()</t>
+  </si>
+  <si>
+    <t>np.random.rand()</t>
+  </si>
+  <si>
+    <t>np.random.randint()</t>
   </si>
 </sst>
 </file>
@@ -532,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -853,8 +883,57 @@
       <c r="D30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="7" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCB9CF4-EB4F-4CBD-83F4-B04D864186D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0206CC5E-915A-4F3B-8BED-1776124E04F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -208,6 +208,39 @@
   </si>
   <si>
     <t>np.random.randint()</t>
+  </si>
+  <si>
+    <t>4th February, 2025</t>
+  </si>
+  <si>
+    <t>NumPy</t>
+  </si>
+  <si>
+    <t>np.arange().reshape()</t>
+  </si>
+  <si>
+    <t>ndarray.dtype</t>
+  </si>
+  <si>
+    <t>ndarray.size</t>
+  </si>
+  <si>
+    <t>ndarray.ndim</t>
+  </si>
+  <si>
+    <t>matrix indexing and slicing</t>
+  </si>
+  <si>
+    <t>row and column wise slicing</t>
+  </si>
+  <si>
+    <t>Order of reshapes - a,c,f</t>
+  </si>
+  <si>
+    <t>Filtering of matrix</t>
+  </si>
+  <si>
+    <t>T-13, T-14</t>
   </si>
 </sst>
 </file>
@@ -562,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E20" sqref="A1:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,34 +939,86 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D36" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D38" s="5" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0206CC5E-915A-4F3B-8BED-1776124E04F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E13EA-8AAC-4B49-B727-0200E39DFFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -241,6 +241,30 @@
   </si>
   <si>
     <t>T-13, T-14</t>
+  </si>
+  <si>
+    <t>5th February, 2025</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Image Analysis using Numpy library</t>
+  </si>
+  <si>
+    <t>Numpy, matplotlib, PIL</t>
+  </si>
+  <si>
+    <t>Image.open()</t>
+  </si>
+  <si>
+    <t>from PIL import Image</t>
+  </si>
+  <si>
+    <t>np.asarray()</t>
+  </si>
+  <si>
+    <t>plt.imshow()</t>
   </si>
 </sst>
 </file>
@@ -296,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -311,10 +335,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,430 +624,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="5" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="5" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D34" s="5" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D34" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D35" s="5" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D36" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D37" s="5" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D37" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D38" s="5" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D38" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>61</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D40" s="5" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D40" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D41" s="5" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D42" s="5" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D42" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D43" s="5" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D44" s="5" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D45" s="6" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D45" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D46" s="5" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D46" s="8" t="s">
         <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D48" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0E13EA-8AAC-4B49-B727-0200E39DFFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE2841-2CCC-4610-A64D-19862AF0D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -265,6 +265,21 @@
   </si>
   <si>
     <t>plt.imshow()</t>
+  </si>
+  <si>
+    <t>6th February, 2025</t>
+  </si>
+  <si>
+    <t>Numpy,matplot</t>
+  </si>
+  <si>
+    <t>Indexing and slicing of a 2d array</t>
+  </si>
+  <si>
+    <t>simple plotting of graph</t>
+  </si>
+  <si>
+    <t>project_2: IPL Data Analysis</t>
   </si>
 </sst>
 </file>
@@ -320,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -339,8 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -624,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -635,7 +649,7 @@
     <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
     <col min="5" max="5" width="21.109375" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="5" customWidth="1"/>
@@ -674,14 +688,14 @@
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -695,21 +709,21 @@
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -723,21 +737,21 @@
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -751,21 +765,21 @@
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -779,14 +793,14 @@
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
@@ -800,21 +814,21 @@
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" t="s">
         <v>28</v>
       </c>
     </row>
@@ -828,14 +842,14 @@
       <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -849,7 +863,7 @@
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" t="s">
         <v>33</v>
       </c>
     </row>
@@ -863,42 +877,42 @@
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+      <c r="D26" t="s">
         <v>40</v>
       </c>
     </row>
@@ -912,10 +926,10 @@
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -925,14 +939,14 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="D28" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="8" t="s">
+      <c r="D29" t="s">
         <v>46</v>
       </c>
     </row>
@@ -946,10 +960,10 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -963,42 +977,42 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="8" t="s">
+      <c r="D32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D33" s="8" t="s">
+      <c r="D33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="8" t="s">
+      <c r="D34" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D35" s="8" t="s">
+      <c r="D35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D36" s="8" t="s">
+      <c r="D36" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="8" t="s">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D38" s="8" t="s">
+      <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1012,7 +1026,7 @@
       <c r="C39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" t="s">
         <v>63</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -1020,37 +1034,37 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D40" s="8" t="s">
+      <c r="D40" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D41" s="8" t="s">
+      <c r="D41" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D42" s="8" t="s">
+      <c r="D42" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D43" s="8" t="s">
+      <c r="D43" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D44" s="8" t="s">
+      <c r="D44" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D46" s="8" t="s">
+      <c r="D46" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1064,7 +1078,7 @@
       <c r="C47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -1072,18 +1086,45 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D48" s="8" t="s">
+      <c r="D48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D49" s="8" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D50" s="8" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BE2841-2CCC-4610-A64D-19862AF0D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDCDB8-7405-4ABF-BEDB-8B9CECE6E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>project_2: IPL Data Analysis</t>
+  </si>
+  <si>
+    <t>7th February, 2025</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1032,7 @@
       <c r="D39" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E39" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1125,6 +1128,14 @@
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BDCDB8-7405-4ABF-BEDB-8B9CECE6E40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE5AEF-19D5-4247-9DB8-F54B9D820AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -283,6 +283,48 @@
   </si>
   <si>
     <t>7th February, 2025</t>
+  </si>
+  <si>
+    <t>Numpy, matplotlib</t>
+  </si>
+  <si>
+    <t>IPL Data Analysis Project</t>
+  </si>
+  <si>
+    <t>13th February, 2025</t>
+  </si>
+  <si>
+    <t>Pandas</t>
+  </si>
+  <si>
+    <t>Intro to pandas library</t>
+  </si>
+  <si>
+    <t>pd.read_csv()</t>
+  </si>
+  <si>
+    <t>df.shape</t>
+  </si>
+  <si>
+    <t>df.columns</t>
+  </si>
+  <si>
+    <t>df.info()</t>
+  </si>
+  <si>
+    <t>df.isnull()</t>
+  </si>
+  <si>
+    <t>df.isnull().sum()</t>
+  </si>
+  <si>
+    <t>df.head(), df.tail()</t>
+  </si>
+  <si>
+    <t>Indexing and slicing  (Row wise and columns wise)</t>
+  </si>
+  <si>
+    <t>df.describe()</t>
   </si>
 </sst>
 </file>
@@ -641,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,6 +1179,71 @@
       <c r="B54" t="s">
         <v>85</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBE5AEF-19D5-4247-9DB8-F54B9D820AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6A37B8-2B29-43FE-9FEB-EE0EDBEBE30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -325,6 +325,18 @@
   </si>
   <si>
     <t>df.describe()</t>
+  </si>
+  <si>
+    <t>Complete MATPLOTLIB.ipynb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Can you do more here?</t>
+  </si>
+  <si>
+    <t>12th February, 2025</t>
   </si>
 </sst>
 </file>
@@ -683,10 +695,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -695,12 +709,13 @@
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="5" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -722,8 +737,11 @@
       <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -737,14 +755,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -758,21 +776,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -786,21 +804,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -814,21 +832,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
       <c r="D11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -842,14 +860,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
       <c r="D14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -863,7 +881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" t="s">
@@ -1031,37 +1049,37 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1078,42 +1096,42 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -1129,23 +1147,26 @@
       <c r="G47" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -1161,18 +1182,21 @@
       <c r="G51" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16</v>
       </c>
@@ -1186,12 +1210,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>89</v>
@@ -1199,53 +1223,65 @@
       <c r="D55" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>99</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>18</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6A37B8-2B29-43FE-9FEB-EE0EDBEBE30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BB5BB3-E78E-4D59-8352-36A86BA9FC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -337,6 +337,9 @@
   </si>
   <si>
     <t>12th February, 2025</t>
+  </si>
+  <si>
+    <t>Imported another dataset and used the same funcitons as before</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,24 +703,24 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,7 +730,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -741,7 +746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -751,18 +756,18 @@
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -772,25 +777,25 @@
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -800,25 +805,25 @@
       <c r="C7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -828,25 +833,25 @@
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -856,18 +861,18 @@
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -877,25 +882,25 @@
       <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -905,18 +910,18 @@
       <c r="C18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -926,11 +931,11 @@
       <c r="C20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -940,46 +945,46 @@
       <c r="C21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -989,31 +994,31 @@
       <c r="C27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1023,14 +1028,14 @@
       <c r="C30" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1040,46 +1045,46 @@
       <c r="C31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1089,49 +1094,49 @@
       <c r="C39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D45" s="8" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -1141,7 +1146,7 @@
       <c r="C47" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -1151,22 +1156,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -1176,7 +1181,7 @@
       <c r="C51" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G51" s="5" t="s">
@@ -1186,17 +1191,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16</v>
       </c>
@@ -1206,11 +1211,11 @@
       <c r="C54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>17</v>
       </c>
@@ -1220,64 +1225,70 @@
       <c r="C55" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D59" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D60" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D61" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="D63" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D64" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18</v>
       </c>
       <c r="B65" t="s">
         <v>88</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BB5BB3-E78E-4D59-8352-36A86BA9FC0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2261A6FE-8DF8-46B1-B4FF-A99477E4EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -340,13 +340,91 @@
   </si>
   <si>
     <t>Imported another dataset and used the same funcitons as before</t>
+  </si>
+  <si>
+    <t>14th February, 2025</t>
+  </si>
+  <si>
+    <t>Mathematical operation between two columns</t>
+  </si>
+  <si>
+    <t>df.drop() : either column or row</t>
+  </si>
+  <si>
+    <t>df.pop()</t>
+  </si>
+  <si>
+    <t>Masking (filtering)</t>
+  </si>
+  <si>
+    <t>df.column.unique()</t>
+  </si>
+  <si>
+    <t>warnings.filterwarnings("ignore")</t>
+  </si>
+  <si>
+    <t>Pandas, Seaborn</t>
+  </si>
+  <si>
+    <t>sns.distplot()</t>
+  </si>
+  <si>
+    <t>sns.displot()</t>
+  </si>
+  <si>
+    <t>sns.boxplot()</t>
+  </si>
+  <si>
+    <t>sns.lmplot()</t>
+  </si>
+  <si>
+    <t>15th February, 2025</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Kaggle and a project to work on </t>
+  </si>
+  <si>
+    <t>P3- Movie Project</t>
+  </si>
+  <si>
+    <t>17th February, 2025</t>
+  </si>
+  <si>
+    <t>Matplotlib</t>
+  </si>
+  <si>
+    <t>P-4 Documentation of matplotlib</t>
+  </si>
+  <si>
+    <t>split() data task</t>
+  </si>
+  <si>
+    <t>introduction to streamlit and a task</t>
+  </si>
+  <si>
+    <t>T-15 : split data</t>
+  </si>
+  <si>
+    <t>T-16: Make something with streamlit</t>
+  </si>
+  <si>
+    <t>18th February, 2025</t>
+  </si>
+  <si>
+    <t>EDA</t>
+  </si>
+  <si>
+    <t>Introduction to EDA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +436,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -700,18 +784,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
@@ -1277,7 +1361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18</v>
       </c>
@@ -1291,7 +1375,128 @@
         <v>104</v>
       </c>
     </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D67" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D68" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D69" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D71" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D72" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D74" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D75" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="D78" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2261A6FE-8DF8-46B1-B4FF-A99477E4EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91372CB3-EAF8-4DF5-A379-EC34447DAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -417,14 +417,59 @@
     <t>EDA</t>
   </si>
   <si>
-    <t>Introduction to EDA</t>
+    <t>19th February, 2025</t>
+  </si>
+  <si>
+    <t>Theory of EDA</t>
+  </si>
+  <si>
+    <t>20 th February, 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA </t>
+  </si>
+  <si>
+    <t>Cleaning Data and basic EDA on data set</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>21 st February, 2025</t>
+  </si>
+  <si>
+    <t>Streamlit EDA</t>
+  </si>
+  <si>
+    <t>Again cleaning data and basic EDA</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>24th February, 2025</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>If, if-else, if-elif-else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for loops </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Never use multiple ifs </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -442,6 +487,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,7 +531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -502,6 +554,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,12 +839,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D81"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,7 +1547,84 @@
         <v>129</v>
       </c>
       <c r="D80" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>23</v>
+      </c>
+      <c r="B81" t="s">
         <v>130</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>132</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>25</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>26</v>
+      </c>
+      <c r="B84" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D85" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D86" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91372CB3-EAF8-4DF5-A379-EC34447DAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBA4A0F-7E15-40F8-B99D-6E583ECFE2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -462,7 +462,97 @@
     <t xml:space="preserve">Never use multiple ifs </t>
   </si>
   <si>
-    <t>s</t>
+    <t>25th February, 2025</t>
+  </si>
+  <si>
+    <t>more on loopps</t>
+  </si>
+  <si>
+    <t>complete the pattern assignment</t>
+  </si>
+  <si>
+    <t>26th February, 2025</t>
+  </si>
+  <si>
+    <t>Shivaratri</t>
+  </si>
+  <si>
+    <t>27th February, 2025</t>
+  </si>
+  <si>
+    <t>28th February, 2025</t>
+  </si>
+  <si>
+    <t>Seaborn</t>
+  </si>
+  <si>
+    <t>Movie Rating Analysis Project:</t>
+  </si>
+  <si>
+    <t>sns.jointplot() and it's kinds</t>
+  </si>
+  <si>
+    <t>sns.color_palette()</t>
+  </si>
+  <si>
+    <t>sns.kdeplot()</t>
+  </si>
+  <si>
+    <t>sns.distplot(), displot()</t>
+  </si>
+  <si>
+    <t>plt.hist()</t>
+  </si>
+  <si>
+    <t>sns.set_style()</t>
+  </si>
+  <si>
+    <t>f, axes = plt.subplots()</t>
+  </si>
+  <si>
+    <t>plt.style.use()</t>
+  </si>
+  <si>
+    <t>"palette" parameter for sns plots</t>
+  </si>
+  <si>
+    <t>sns.violinplot()</t>
+  </si>
+  <si>
+    <t>sns.FacetGrid()</t>
+  </si>
+  <si>
+    <t>plt.scatter()</t>
+  </si>
+  <si>
+    <t>mapping on facet grid</t>
+  </si>
+  <si>
+    <t>continuation of previous day task</t>
+  </si>
+  <si>
+    <t>Resume Project</t>
+  </si>
+  <si>
+    <t>2 Resume Project</t>
+  </si>
+  <si>
+    <t>1st March</t>
+  </si>
+  <si>
+    <t>Ollama, Mistral</t>
+  </si>
+  <si>
+    <t>EDA Automation Workshop</t>
+  </si>
+  <si>
+    <t>3rd March</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Introduction to Database, DBMS, SQL and Non-SQL DBMS</t>
   </si>
 </sst>
 </file>
@@ -839,27 +929,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G91" sqref="G91"/>
+      <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -899,14 +989,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -920,21 +1010,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -948,21 +1038,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -976,21 +1066,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1004,14 +1094,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1025,21 +1115,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1053,14 +1143,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1074,7 +1164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1088,42 +1178,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1143,21 +1233,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1174,7 +1264,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1188,42 +1278,42 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1240,42 +1330,42 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D40" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D42" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D43" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D44" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D45" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D46" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>14</v>
       </c>
@@ -1295,22 +1385,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D48" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D49" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D50" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>15</v>
       </c>
@@ -1330,17 +1420,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D52" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D53" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16</v>
       </c>
@@ -1354,7 +1444,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>17</v>
       </c>
@@ -1371,52 +1461,52 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D57" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D60" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D61" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="D63" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D64" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>18</v>
       </c>
@@ -1430,7 +1520,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>19</v>
       </c>
@@ -1444,52 +1534,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D67" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D68" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D69" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D70" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D71" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D72" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D73" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D74" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D75" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>20</v>
       </c>
@@ -1502,11 +1592,11 @@
       <c r="D76" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>21</v>
       </c>
@@ -1519,24 +1609,24 @@
       <c r="D77" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="D78" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="E78" s="9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D79" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>22</v>
       </c>
@@ -1550,7 +1640,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>23</v>
       </c>
@@ -1564,7 +1654,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>24</v>
       </c>
@@ -1581,7 +1671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>25</v>
       </c>
@@ -1598,7 +1688,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>26</v>
       </c>
@@ -1612,19 +1702,181 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D85" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D86" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G91" s="5" t="s">
+    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>27</v>
+      </c>
+      <c r="B87" t="s">
         <v>145</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>29</v>
+      </c>
+      <c r="B89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D90" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D91" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D92" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D93" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D94" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D95" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D96" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D97" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D98" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D99" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D100" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D101" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D102" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D103" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D104" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>30</v>
+      </c>
+      <c r="B105" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D106" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>31</v>
+      </c>
+      <c r="B107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>32</v>
+      </c>
+      <c r="B108" t="s">
+        <v>173</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CBA4A0F-7E15-40F8-B99D-6E583ECFE2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCD5AC-9197-4F45-A869-2798302C1EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -553,6 +553,9 @@
   </si>
   <si>
     <t>Introduction to Database, DBMS, SQL and Non-SQL DBMS</t>
+  </si>
+  <si>
+    <t>4th March</t>
   </si>
 </sst>
 </file>
@@ -929,12 +932,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J107" sqref="J107"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,6 +1882,14 @@
         <v>175</v>
       </c>
     </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>33</v>
+      </c>
+      <c r="B109" t="s">
+        <v>176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DCD5AC-9197-4F45-A869-2798302C1EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC5F79-0955-4055-9CC9-24924E16AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -556,6 +556,60 @@
   </si>
   <si>
     <t>4th March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types of SQL </t>
+  </si>
+  <si>
+    <t>5th March</t>
+  </si>
+  <si>
+    <t>insert table - secure and insecure way</t>
+  </si>
+  <si>
+    <t>CREATE, ALTER, UPDATE, DROP, MODIFY</t>
+  </si>
+  <si>
+    <t>DML, DDL ?</t>
+  </si>
+  <si>
+    <t>access mysql from cmd prompt</t>
+  </si>
+  <si>
+    <t>6th March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL </t>
+  </si>
+  <si>
+    <t>SUM(), MAX(), MIN(), AVG()</t>
+  </si>
+  <si>
+    <t>wild card characters  : _ , %</t>
+  </si>
+  <si>
+    <t>chapter from book - datetime ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOINS - LEFT JOIN, RIGHT JOIN, INNERJOIN, CROSS JOIN </t>
+  </si>
+  <si>
+    <t>Transformer vs embedding</t>
+  </si>
+  <si>
+    <t>workshop(Sql)</t>
+  </si>
+  <si>
+    <t>7th March</t>
+  </si>
+  <si>
+    <t>SQL vs PYTHON</t>
+  </si>
+  <si>
+    <t>SQL vs Python for data analysis</t>
+  </si>
+  <si>
+    <t>T23 and T24</t>
   </si>
 </sst>
 </file>
@@ -592,7 +646,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +665,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -624,7 +684,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -650,6 +710,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -932,27 +995,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
+      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="5" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +1041,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -992,14 +1055,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="7"/>
       <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1013,21 +1076,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1041,21 +1104,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
       <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="7"/>
       <c r="D9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1069,21 +1132,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1097,14 +1160,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1118,21 +1181,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
       <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1146,14 +1209,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1167,7 +1230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -1181,42 +1244,42 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="7"/>
       <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
       <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1236,21 +1299,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
       <c r="D28" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
       <c r="D29" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -1267,7 +1330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1281,42 +1344,42 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D33" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D34" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D37" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D38" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -1333,42 +1396,42 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D40" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D41" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D42" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D43" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D44" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D45" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D46" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -1388,22 +1451,22 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D48" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D50" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -1423,17 +1486,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D52" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D53" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>16</v>
       </c>
@@ -1447,7 +1510,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>17</v>
       </c>
@@ -1464,52 +1527,52 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D57" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D58" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D59" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D60" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D61" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D62" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D63" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D64" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>18</v>
       </c>
@@ -1523,7 +1586,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>19</v>
       </c>
@@ -1537,52 +1600,52 @@
         <v>106</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D67" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D68" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D69" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D71" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D72" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D73" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D74" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D75" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20</v>
       </c>
@@ -1599,7 +1662,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21</v>
       </c>
@@ -1616,7 +1679,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="D78" s="5" t="s">
         <v>124</v>
       </c>
@@ -1624,12 +1687,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>22</v>
       </c>
@@ -1643,7 +1706,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>23</v>
       </c>
@@ -1657,7 +1720,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>24</v>
       </c>
@@ -1674,7 +1737,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>25</v>
       </c>
@@ -1691,7 +1754,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>26</v>
       </c>
@@ -1705,17 +1768,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D85" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D86" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>27</v>
       </c>
@@ -1732,7 +1795,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>28</v>
       </c>
@@ -1743,7 +1806,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>29</v>
       </c>
@@ -1757,82 +1820,82 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D90" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D91" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D92" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D93" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D94" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D95" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D96" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D97" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D98" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D99" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D100" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D101" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D102" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D103" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D104" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>30</v>
       </c>
@@ -1849,12 +1912,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>31</v>
       </c>
@@ -1868,7 +1931,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>32</v>
       </c>
@@ -1882,12 +1945,103 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>33</v>
       </c>
       <c r="B109" t="s">
         <v>176</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D111" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D112" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D113" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>35</v>
+      </c>
+      <c r="B114" t="s">
+        <v>183</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D115" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D116" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D117" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D118" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D119" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>36</v>
+      </c>
+      <c r="B120" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G120" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/DailyClassroomNotes/Tracking.xlsx
+++ b/DailyClassroomNotes/Tracking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vineet\Desktop\Pyhtonshit\DailyClassroomNotes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFC5F79-0955-4055-9CC9-24924E16AB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A397D-0744-4D1B-A48A-2AE40AA9CC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="239">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -610,6 +610,139 @@
   </si>
   <si>
     <t>T23 and T24</t>
+  </si>
+  <si>
+    <t>8th March</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>10th March</t>
+  </si>
+  <si>
+    <t>Introduction to stats - popultaion vs sample</t>
+  </si>
+  <si>
+    <t>most of the data we work are sample type of data</t>
+  </si>
+  <si>
+    <t>type of data - numerical or categorical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level of measure - qualitative or quantitative </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualitative - nominal and ordinal </t>
+  </si>
+  <si>
+    <t>Quantitative - interval and ratio</t>
+  </si>
+  <si>
+    <t>Outlier affects mean strategy the most</t>
+  </si>
+  <si>
+    <t>measure of central tendency - mean, median and mode</t>
+  </si>
+  <si>
+    <t>random sample - roll a dice getting random number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11th March </t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>skewness - data aggregates at which side</t>
+  </si>
+  <si>
+    <t>positive skew - mean &gt; median &amp; mode (data is left and outlier is right)</t>
+  </si>
+  <si>
+    <t>negative skew - mean &amp; median (data is  at right &amp; outlier is at left)</t>
+  </si>
+  <si>
+    <t>zero skew ( mean = median = mode)</t>
+  </si>
+  <si>
+    <t>normal distribution - Gaussian distribution - Bell curve - zero symmetry)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurtois - measure of tailedness </t>
+  </si>
+  <si>
+    <t>leptokurtic - high kurtosis - fat tails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesokurtic - medium kurtosis - medium tails </t>
+  </si>
+  <si>
+    <t>platykurtic - low kurtosis - thin tails</t>
+  </si>
+  <si>
+    <t>measure of variability - variance, standard deviation, coefficient of variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tkinter - web gui </t>
+  </si>
+  <si>
+    <t>12th March</t>
+  </si>
+  <si>
+    <t>Statistics and Advanced Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Python Function </t>
+  </si>
+  <si>
+    <t>descriptive stats</t>
+  </si>
+  <si>
+    <t>T25- Income expanses descriptive stats analysis
+T26  - Introduction to python function</t>
+  </si>
+  <si>
+    <t>13th March</t>
+  </si>
+  <si>
+    <t>Inferential Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probability and Distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardization - normal distrubutoion converted to mean 0 and sd 1 </t>
+  </si>
+  <si>
+    <t>central limit theorem</t>
+  </si>
+  <si>
+    <t>Standard error = sigma/n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence interval </t>
+  </si>
+  <si>
+    <t>Estimator and Estimates</t>
+  </si>
+  <si>
+    <t>z-test, z-table, z-score</t>
+  </si>
+  <si>
+    <t>14th March</t>
+  </si>
+  <si>
+    <t>Inferential Statistics and Python Functions</t>
+  </si>
+  <si>
+    <t>completion of descriptive and inferential statistics</t>
+  </si>
+  <si>
+    <t>Formal Argument (arguments while defining a function)</t>
+  </si>
+  <si>
+    <t>Actual Argument (positional argument, keyword argument, default argument, variable length, kwargs)</t>
   </si>
 </sst>
 </file>
@@ -995,12 +1128,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G111" sqref="G111"/>
+      <selection pane="bottomLeft" activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,7 +1142,7 @@
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33" style="5" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
@@ -2044,6 +2177,225 @@
         <v>194</v>
       </c>
     </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>37</v>
+      </c>
+      <c r="B121" t="s">
+        <v>195</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>38</v>
+      </c>
+      <c r="B122" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D123" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D124" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D125" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D126" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D127" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="D128" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D129" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D130" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>39</v>
+      </c>
+      <c r="B131" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D132" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D133" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D134" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D135" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D136" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D137" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="D138" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D139" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="D140" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D141" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>40</v>
+      </c>
+      <c r="B142" t="s">
+        <v>220</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D143" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>41</v>
+      </c>
+      <c r="B144" t="s">
+        <v>225</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D145" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>42</v>
+      </c>
+      <c r="B151" t="s">
+        <v>234</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D152" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D153" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
